--- a/Data/GDP_by_private_companies_ua_by_year.xlsx
+++ b/Data/GDP_by_private_companies_ua_by_year.xlsx
@@ -1,17 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28109"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aleksandr/Documents/GIT/Privatization-in-Ukraine.-1992-2015/Data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="15255" windowHeight="5385"/>
+    <workbookView xWindow="120" yWindow="460" windowWidth="18300" windowHeight="7920" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="GDP by private companies in Ukr" sheetId="1" r:id="rId1"/>
     <sheet name="information" sheetId="2" r:id="rId2"/>
-    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -33,11 +45,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,18 +110,23 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Normal_Structural Change Indicators (without links)" xfId="1"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -147,14 +164,14 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -181,14 +198,15 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -215,9 +233,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -390,20 +409,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" customWidth="1"/>
-    <col min="2" max="2" width="31.5703125" customWidth="1"/>
+    <col min="1" max="1" width="9.5" customWidth="1"/>
+    <col min="2" max="2" width="31.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75">
+    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -411,7 +430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75">
+    <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>2004</v>
       </c>
@@ -419,7 +438,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75">
+    <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2005</v>
       </c>
@@ -427,7 +446,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75">
+    <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>2006</v>
       </c>
@@ -435,7 +454,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75">
+    <row r="5" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>2007</v>
       </c>
@@ -443,7 +462,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75">
+    <row r="6" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>2008</v>
       </c>
@@ -451,7 +470,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.75">
+    <row r="7" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>2009</v>
       </c>
@@ -459,7 +478,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.75">
+    <row r="8" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>2010</v>
       </c>
@@ -473,24 +492,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="35.5703125" customWidth="1"/>
+    <col min="1" max="1" width="35.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.75">
+    <row r="1" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -498,16 +517,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Data/GDP_by_private_companies_ua_by_year.xlsx
+++ b/Data/GDP_by_private_companies_ua_by_year.xlsx
@@ -1,29 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28109"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aleksandr/Documents/GIT/Privatization-in-Ukraine.-1992-2015/Data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="460" windowWidth="18300" windowHeight="7920" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="15255" windowHeight="5385"/>
   </bookViews>
   <sheets>
     <sheet name="GDP by private companies in Ukr" sheetId="1" r:id="rId1"/>
     <sheet name="information" sheetId="2" r:id="rId2"/>
+    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -36,20 +24,20 @@
     <t>% GDP by private companies in Ukraine</t>
   </si>
   <si>
-    <t>Data source - data is taken from official data of EBRD - http://www.ebrd.com/what-we-do/economic-research-and-data/data/forecasts-macro-data-transition-indicators.html</t>
+    <t>Year</t>
   </si>
   <si>
-    <t>Year</t>
+    <t xml:space="preserve">Data source - data is taken from official data of EBRD - http://www.ebrd.com/downloads/research/economics/macrodata/sci.xls In the file it is necessary to choose list “Ukraine”, and there to find indicator “Private sector share in GDP (in per cent)” for relevant year  </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,23 +98,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="Normal_Structural Change Indicators (without links)" xfId="1"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_Structural Change Indicators (without links)" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -164,14 +147,14 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -198,15 +181,14 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -233,10 +215,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -409,81 +390,109 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.42578125" customWidth="1"/>
+    <col min="2" max="2" width="31.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75">
+      <c r="A2" s="2">
+        <v>2004</v>
+      </c>
+      <c r="B2" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75">
+      <c r="A3" s="2">
+        <v>2005</v>
+      </c>
+      <c r="B3" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75">
+      <c r="A4" s="2">
+        <v>2006</v>
+      </c>
+      <c r="B4" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75">
+      <c r="A5" s="2">
+        <v>2007</v>
+      </c>
+      <c r="B5" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75">
+      <c r="A6" s="2">
+        <v>2008</v>
+      </c>
+      <c r="B6" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75">
+      <c r="A7" s="2">
+        <v>2009</v>
+      </c>
+      <c r="B7" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75">
+      <c r="A8" s="2">
+        <v>2010</v>
+      </c>
+      <c r="B8" s="2">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.5" customWidth="1"/>
-    <col min="2" max="2" width="31.5" customWidth="1"/>
+    <col min="1" max="1" width="35.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" ht="15.75">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
         <v>3</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
-        <v>2004</v>
-      </c>
-      <c r="B2" s="2">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
-        <v>2005</v>
-      </c>
-      <c r="B3" s="2">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
-        <v>2006</v>
-      </c>
-      <c r="B4" s="2">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
-        <v>2007</v>
-      </c>
-      <c r="B5" s="2">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
-        <v>2008</v>
-      </c>
-      <c r="B6" s="2">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
-        <v>2009</v>
-      </c>
-      <c r="B7" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
-        <v>2010</v>
-      </c>
-      <c r="B8" s="2">
-        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -491,30 +500,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="35.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Data/GDP_by_private_companies_ua_by_year.xlsx
+++ b/Data/GDP_by_private_companies_ua_by_year.xlsx
@@ -1,17 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28109"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aleksandr/Documents/GIT/Privatization-in-Ukraine.-1992-2015/Data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="15255" windowHeight="5385"/>
+    <workbookView xWindow="2820" yWindow="1980" windowWidth="18980" windowHeight="9500"/>
   </bookViews>
   <sheets>
     <sheet name="GDP by private companies in Ukr" sheetId="1" r:id="rId1"/>
     <sheet name="information" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -33,11 +46,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,18 +111,23 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Normal_Structural Change Indicators (without links)" xfId="1"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -147,14 +165,14 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -181,14 +199,15 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -215,9 +234,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -390,20 +410,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" customWidth="1"/>
-    <col min="2" max="2" width="31.5703125" customWidth="1"/>
+    <col min="1" max="1" width="9.5" customWidth="1"/>
+    <col min="2" max="2" width="31.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75">
+    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -411,7 +431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75">
+    <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>2004</v>
       </c>
@@ -419,7 +439,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75">
+    <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2005</v>
       </c>
@@ -427,7 +447,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75">
+    <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>2006</v>
       </c>
@@ -435,7 +455,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75">
+    <row r="5" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>2007</v>
       </c>
@@ -443,7 +463,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75">
+    <row r="6" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>2008</v>
       </c>
@@ -451,7 +471,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.75">
+    <row r="7" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>2009</v>
       </c>
@@ -459,7 +479,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.75">
+    <row r="8" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>2010</v>
       </c>
@@ -473,24 +493,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="35.5703125" customWidth="1"/>
+    <col min="1" max="1" width="35.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.75">
+    <row r="1" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -501,12 +521,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
